--- a/Бланк_Нагрузки 15-02-2024.xlsx
+++ b/Бланк_Нагрузки 15-02-2024.xlsx
@@ -122,7 +122,7 @@
     <x:t>52</x:t>
   </x:si>
   <x:si>
-    <x:t>6,75</x:t>
+    <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
@@ -134,25 +134,37 @@
     <x:t>Басаргин</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
+    <x:t>152</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>362</x:t>
+    <x:t>322</x:t>
   </x:si>
   <x:si>
     <x:t>66</x:t>
   </x:si>
   <x:si>
-    <x:t>20,1</x:t>
-  </x:si>
-  <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>64,2</x:t>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Басаргин 0,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2</x:t>
   </x:si>
   <x:si>
     <x:t>Гришин</x:t>
@@ -173,7 +185,7 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>308</x:t>
+    <x:t>240</x:t>
   </x:si>
   <x:si>
     <x:t>16,8</x:t>
@@ -182,396 +194,408 @@
     <x:t>33,6</x:t>
   </x:si>
   <x:si>
-    <x:t>Шарапов 0,25</x:t>
+    <x:t>Шарапов 0,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бугакова</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Шлома</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Крылова</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Крылова 0,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смирнов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Карнетова</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вдовин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Барлиани</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бугаков</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Шпак</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>3,15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бугакова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шлома</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шлома 0,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Крылова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2</x:t>
+    <x:t>6,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нефедова</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кноль</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Второе полугодие</x:t>
+  </x:si>
+  <x:si>
+    <x:t>359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134,7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49,6</x:t>
   </x:si>
   <x:si>
     <x:t>51,9</x:t>
   </x:si>
   <x:si>
+    <x:t>1,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56,7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
     <x:t>19,2</x:t>
   </x:si>
   <x:si>
-    <x:t>Смирнов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Карнетова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62,7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вдовин</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Барлиани</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бугаков</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шпак</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Нефедова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кноль</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Второе полугодие</x:t>
-  </x:si>
-  <x:si>
-    <x:t>359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47,7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110,7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48,6</x:t>
+    <x:t>56,2</x:t>
   </x:si>
   <x:si>
     <x:t>56</x:t>
   </x:si>
   <x:si>
-    <x:t>18,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,2</x:t>
-  </x:si>
-  <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
@@ -585,9 +609,6 @@
   </x:si>
   <x:si>
     <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -938,7 +959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O23"/>
+  <x:dimension ref="A1:O24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1020,6 +1041,9 @@
       <x:c r="B4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1027,7 +1051,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O4" s="0">
-        <x:v>36.75</x:v>
+        <x:v>66.75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
@@ -1084,7 +1108,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="O7" s="0">
-        <x:v>182.75</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
@@ -1104,20 +1128,23 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="K8" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="O8" s="0">
-        <x:v>759.3</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15">
       <x:c r="A9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
@@ -1130,31 +1157,31 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O9" s="0">
-        <x:v>420.75</x:v>
+        <x:v>117.3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15">
       <x:c r="A10" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="K10" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="O10" s="0">
-        <x:v>364.4</x:v>
+        <x:v>420.75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:15">
       <x:c r="A11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
@@ -1167,46 +1194,37 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="O11" s="0">
-        <x:v>44.45</x:v>
+        <x:v>296.4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15">
       <x:c r="A12" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
+      <x:c r="K12" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="M12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="O12" s="0">
-        <x:v>434.05</x:v>
+        <x:v>146.45</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:15">
       <x:c r="A13" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
@@ -1215,8 +1233,11 @@
       <x:c r="K13" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="O13" s="0">
-        <x:v>173.8</x:v>
+        <x:v>434.05</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:15">
@@ -1226,74 +1247,83 @@
       <x:c r="B14" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O14" s="0">
-        <x:v>44.2</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:15">
       <x:c r="A15" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="F15" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="K15" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="s">
+      <x:c r="M15" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="M15" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="O15" s="0">
-        <x:v>434.6</x:v>
+        <x:v>254.65</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15">
       <x:c r="A16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="F16" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="K16" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="K16" s="0" t="s">
+      <x:c r="M16" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="O16" s="0">
-        <x:v>472.75</x:v>
+        <x:v>179.95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:15">
       <x:c r="A17" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>88</x:v>
@@ -1302,7 +1332,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="O17" s="0">
-        <x:v>454.1</x:v>
+        <x:v>472.75</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:15">
@@ -1312,101 +1342,121 @@
       <x:c r="D18" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O18" s="0">
-        <x:v>123.75</x:v>
+        <x:v>454.1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:15">
       <x:c r="A19" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
+      <x:c r="K19" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="K19" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="O19" s="0">
-        <x:v>582.65</x:v>
+        <x:v>123.75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15">
       <x:c r="A20" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="F20" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O20" s="0">
-        <x:v>223.8</x:v>
+        <x:v>582.65</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:15">
       <x:c r="A21" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="K21" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O21" s="0">
-        <x:v>104.35</x:v>
+        <x:v>223.8</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:15">
       <x:c r="A22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O22" s="0">
-        <x:v>17</x:v>
+        <x:v>104.35</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:15">
       <x:c r="A23" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O23" s="0">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:15">
+      <x:c r="A24" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O24" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1427,7 +1477,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O23"/>
+  <x:dimension ref="A1:O24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1435,7 +1485,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:15">
       <x:c r="A1" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15">
@@ -1490,22 +1540,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O3" s="0">
         <x:v>529.1</x:v>
@@ -1516,28 +1566,28 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O4" s="0">
-        <x:v>254.55</x:v>
+        <x:v>260.75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
@@ -1545,16 +1595,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O5" s="0">
         <x:v>305.1</x:v>
@@ -1565,10 +1615,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>26</x:v>
@@ -1577,7 +1627,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
         <x:v>37</x:v>
@@ -1591,31 +1641,31 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O7" s="0">
-        <x:v>280.65</x:v>
+        <x:v>304.65</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
@@ -1623,48 +1673,48 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="O8" s="0">
-        <x:v>618.6</x:v>
+        <x:v>495.5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15">
       <x:c r="A9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="O9" s="0">
-        <x:v>737.25</x:v>
+        <x:v>123.1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15">
@@ -1672,42 +1722,42 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="O10" s="0">
-        <x:v>518.1</x:v>
+        <x:v>737.25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:15">
       <x:c r="A11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="O11" s="0">
-        <x:v>124.25</x:v>
+        <x:v>472.05</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15">
@@ -1715,54 +1765,51 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="M12" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
       <x:c r="O12" s="0">
-        <x:v>840.35</x:v>
+        <x:v>173.3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:15">
       <x:c r="A13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>156</x:v>
       </x:c>
       <x:c r="O13" s="0">
-        <x:v>239.2</x:v>
+        <x:v>840.35</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:15">
@@ -1770,74 +1817,74 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O14" s="0">
-        <x:v>105.6</x:v>
+        <x:v>356.8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:15">
       <x:c r="A15" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K15" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="O15" s="0">
-        <x:v>611.3</x:v>
+        <x:v>350.95</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15">
       <x:c r="A16" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O16" s="0">
-        <x:v>1553.7</x:v>
+        <x:v>260.35</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:15">
@@ -1845,177 +1892,200 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="M17" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="O17" s="0">
-        <x:v>544.25</x:v>
+        <x:v>1553.7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:15">
       <x:c r="A18" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>174</x:v>
       </x:c>
       <x:c r="O18" s="0">
-        <x:v>408.25</x:v>
+        <x:v>544.25</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:15">
       <x:c r="A19" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="O19" s="0">
-        <x:v>500</x:v>
+        <x:v>408.25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15">
       <x:c r="A20" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="N20" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="O20" s="0">
-        <x:v>231.75</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:15">
       <x:c r="A21" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
       <x:c r="O21" s="0">
-        <x:v>434.4</x:v>
+        <x:v>231.75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:15">
       <x:c r="A22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="O22" s="0">
-        <x:v>333.55</x:v>
+        <x:v>434.4</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:15">
       <x:c r="A23" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="O23" s="0">
+        <x:v>333.55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:15">
+      <x:c r="A24" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="K23" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="O23" s="0">
+      <x:c r="B24" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="O24" s="0">
         <x:v>33.5</x:v>
       </x:c>
     </x:row>
